--- a/plots/reordering_multipath_var.xlsx
+++ b/plots/reordering_multipath_var.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C910A54D-6060-AF43-A8A9-15F77F49B0E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FFB8F-D73F-134B-A330-A99CDCF01568}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{A6012ECB-61CB-FF42-BF73-A9DB0762EF75}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A6012ECB-61CB-FF42-BF73-A9DB0762EF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$121</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$121</definedName>
+    <definedName name="reordering_multipath_var_out" localSheetId="0">Sheet1!$A$2:$C$121</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,6 +30,34 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="reordering_multipath_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/reordering_multipath_var_out.csv" thousands="'" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Reordering</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +108,2558 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Reordering</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> 3-Hop-Path</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reordering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.367999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.409000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.697</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.732</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>185.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215.89599999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>225.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>235.983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256.065</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>266.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>286.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>306.27800000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>316.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>336.404</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>366.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>376.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>386.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>396.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>406.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>416.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>426.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>436.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>446.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>456.88400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>466.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>476.95499999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>486.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>497.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>507.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.11400000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>527.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>547.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.32399999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>577.36400000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>587.404</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>597.44399999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>607.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>617.53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>627.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>637.61800000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>647.65499999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>657.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>667.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>677.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>687.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>697.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>707.89700000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>717.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>727.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>738.00300000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>748.04499999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>758.08500000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>768.12199999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>778.16700000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>788.21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>798.25199999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>808.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>818.34799999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>828.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>838.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>848.47799999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>858.52099999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>868.56399999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>878.59799999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>888.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>898.68499999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>908.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>918.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>928.80600000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>938.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>948.88699999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>958.928</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>968.96500000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>979.00699999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>989.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>999.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1009.136</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1019.181</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1029.2270000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1039.268</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1049.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1059.356</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1069.403</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1079.4490000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1089.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1099.5429999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1109.588</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1119.634</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1129.6790000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1139.7239999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1149.7629999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1159.8219999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1169.8679999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1179.9079999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1189.9549999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>27.837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.263000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.489000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.469000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.835000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.425999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.805999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.552</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.933999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.573</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.622999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.134</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.942999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.918999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65.043000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.694999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.299000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.406000000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.602999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.992000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.912999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78.073999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>79.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.043000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.480999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>83.105999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86.04</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86.391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.233999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.122</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.54</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90.093999999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>91.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>91.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91.599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>91.741</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>91.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>92.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>91.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.096999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>92.290999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>92.415000000000006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>92.488</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92.528000000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>92.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>92.409000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>92.259</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92.179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>92.31</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>92.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>92.275000000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.995000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>91.721000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>92.064999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>91.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>91.760999999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>91.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>90.988</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>90.628</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>90.507000000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>90.31</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>90.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>90.132000000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>89.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>89.766000000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>89.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>89.019000000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>88.668000000000006</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>88.462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>87.727000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>86.942999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9F1-214D-82A7-4663EA16C644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.367999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.409000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.697</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.732</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>185.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215.89599999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>225.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>235.983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256.065</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>266.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>286.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>306.27800000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>316.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>336.404</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>346.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>366.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>376.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>386.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>396.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>406.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>416.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>426.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>436.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>446.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>456.88400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>466.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>476.95499999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>486.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>497.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>507.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.11400000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>527.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>537.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>547.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>557.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>567.32399999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>577.36400000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>587.404</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>597.44399999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>607.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>617.53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>627.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>637.61800000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>647.65499999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>657.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>667.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>677.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>687.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>697.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>707.89700000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>717.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>727.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>738.00300000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>748.04499999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>758.08500000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>768.12199999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>778.16700000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>788.21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>798.25199999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>808.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>818.34799999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>828.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>838.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>848.47799999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>858.52099999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>868.56399999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>878.59799999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>888.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>898.68499999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>908.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>918.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>928.80600000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>938.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>948.88699999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>958.928</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>968.96500000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>979.00699999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>989.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>999.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1009.136</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1019.181</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1029.2270000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1039.268</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1049.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1059.356</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1069.403</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1079.4490000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1089.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1099.5429999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1109.588</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1119.634</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1129.6790000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1139.7239999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1149.7629999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1159.8219999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1169.8679999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1179.9079999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1189.9549999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.837999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76.837999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76.837999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>83.238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83.238</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84.991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>84.991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>86.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>86.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>88.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>90.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>90.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>91.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>91.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92.492000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92.492000000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>91.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>88.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84.991</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84.991</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.991</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.238</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83.238</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>79.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>79.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.837999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.837999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>74.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>74.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>71.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>71.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>68.352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>68.352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68.352000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>64.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>64.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>61.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>61.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>57.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>47.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.977</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16.625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16.625</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.6479999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9F1-214D-82A7-4663EA16C644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="704546607"/>
+        <c:axId val="665853807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="704546607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665853807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="665853807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704546607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D9A4EF-0119-DA46-815B-E753B5F09B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reordering_multipath_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +2959,1352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB91BF72-9D52-8641-86D3-74BB14012A44}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.056</v>
+      </c>
+      <c r="B2">
+        <v>27.837</v>
+      </c>
+      <c r="C2">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>15.096</v>
+      </c>
+      <c r="B3">
+        <v>28.263000000000002</v>
+      </c>
+      <c r="C3">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>25.135000000000002</v>
+      </c>
+      <c r="B4">
+        <v>28.489000000000001</v>
+      </c>
+      <c r="C4">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>35.170999999999999</v>
+      </c>
+      <c r="B5">
+        <v>28.692</v>
+      </c>
+      <c r="C5">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>45.210999999999999</v>
+      </c>
+      <c r="B6">
+        <v>27.972000000000001</v>
+      </c>
+      <c r="C6">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>55.244999999999997</v>
+      </c>
+      <c r="B7">
+        <v>28.042000000000002</v>
+      </c>
+      <c r="C7">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>65.283000000000001</v>
+      </c>
+      <c r="B8">
+        <v>28.469000000000001</v>
+      </c>
+      <c r="C8">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>75.334999999999994</v>
+      </c>
+      <c r="B9">
+        <v>29.443000000000001</v>
+      </c>
+      <c r="C9">
+        <v>23.977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>85.367999999999995</v>
+      </c>
+      <c r="B10">
+        <v>29.835000000000001</v>
+      </c>
+      <c r="C10">
+        <v>23.977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>95.409000000000006</v>
+      </c>
+      <c r="B11">
+        <v>30.995000000000001</v>
+      </c>
+      <c r="C11">
+        <v>23.977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105.452</v>
+      </c>
+      <c r="B12">
+        <v>31.425999999999998</v>
+      </c>
+      <c r="C12">
+        <v>30.747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>115.491</v>
+      </c>
+      <c r="B13">
+        <v>32.613</v>
+      </c>
+      <c r="C13">
+        <v>30.747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>125.53100000000001</v>
+      </c>
+      <c r="B14">
+        <v>32.024999999999999</v>
+      </c>
+      <c r="C14">
+        <v>36.975000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>135.571</v>
+      </c>
+      <c r="B15">
+        <v>32.314999999999998</v>
+      </c>
+      <c r="C15">
+        <v>36.975000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>145.61099999999999</v>
+      </c>
+      <c r="B16">
+        <v>33.295000000000002</v>
+      </c>
+      <c r="C16">
+        <v>36.975000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>155.655</v>
+      </c>
+      <c r="B17">
+        <v>34.046999999999997</v>
+      </c>
+      <c r="C17">
+        <v>42.701000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>165.697</v>
+      </c>
+      <c r="B18">
+        <v>35.36</v>
+      </c>
+      <c r="C18">
+        <v>42.701000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>175.732</v>
+      </c>
+      <c r="B19">
+        <v>37.613999999999997</v>
+      </c>
+      <c r="C19">
+        <v>47.959000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>185.77500000000001</v>
+      </c>
+      <c r="B20">
+        <v>39.115000000000002</v>
+      </c>
+      <c r="C20">
+        <v>47.959000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>195.81700000000001</v>
+      </c>
+      <c r="B21">
+        <v>41.805999999999997</v>
+      </c>
+      <c r="C21">
+        <v>52.783999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>205.86099999999999</v>
+      </c>
+      <c r="B22">
+        <v>42.37</v>
+      </c>
+      <c r="C22">
+        <v>52.783999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>215.89599999999999</v>
+      </c>
+      <c r="B23">
+        <v>42.99</v>
+      </c>
+      <c r="C23">
+        <v>52.783999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>225.94</v>
+      </c>
+      <c r="B24">
+        <v>43.646999999999998</v>
+      </c>
+      <c r="C24">
+        <v>57.207000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>235.983</v>
+      </c>
+      <c r="B25">
+        <v>46.09</v>
+      </c>
+      <c r="C25">
+        <v>57.207000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>246.02500000000001</v>
+      </c>
+      <c r="B26">
+        <v>46.890999999999998</v>
+      </c>
+      <c r="C26">
+        <v>61.258000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>256.065</v>
+      </c>
+      <c r="B27">
+        <v>48.552</v>
+      </c>
+      <c r="C27">
+        <v>61.258000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>266.10899999999998</v>
+      </c>
+      <c r="B28">
+        <v>49.933999999999997</v>
+      </c>
+      <c r="C28">
+        <v>61.258000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>276.14800000000002</v>
+      </c>
+      <c r="B29">
+        <v>51.082000000000001</v>
+      </c>
+      <c r="C29">
+        <v>64.963999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>286.19099999999997</v>
+      </c>
+      <c r="B30">
+        <v>52.573</v>
+      </c>
+      <c r="C30">
+        <v>64.963999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>296.23399999999998</v>
+      </c>
+      <c r="B31">
+        <v>53.622999999999998</v>
+      </c>
+      <c r="C31">
+        <v>68.352000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>306.27800000000002</v>
+      </c>
+      <c r="B32">
+        <v>56.134</v>
+      </c>
+      <c r="C32">
+        <v>68.352000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>316.31799999999998</v>
+      </c>
+      <c r="B33">
+        <v>57.658999999999999</v>
+      </c>
+      <c r="C33">
+        <v>71.445999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>326.35599999999999</v>
+      </c>
+      <c r="B34">
+        <v>57.59</v>
+      </c>
+      <c r="C34">
+        <v>71.445999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>336.404</v>
+      </c>
+      <c r="B35">
+        <v>58.942999999999998</v>
+      </c>
+      <c r="C35">
+        <v>71.445999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>346.45</v>
+      </c>
+      <c r="B36">
+        <v>60.81</v>
+      </c>
+      <c r="C36">
+        <v>74.266999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>356.49099999999999</v>
+      </c>
+      <c r="B37">
+        <v>60.918999999999997</v>
+      </c>
+      <c r="C37">
+        <v>74.266999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>366.53100000000001</v>
+      </c>
+      <c r="B38">
+        <v>61.954999999999998</v>
+      </c>
+      <c r="C38">
+        <v>76.837999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>376.57</v>
+      </c>
+      <c r="B39">
+        <v>63.716000000000001</v>
+      </c>
+      <c r="C39">
+        <v>76.837999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>386.61099999999999</v>
+      </c>
+      <c r="B40">
+        <v>64.433999999999997</v>
+      </c>
+      <c r="C40">
+        <v>76.837999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>396.65100000000001</v>
+      </c>
+      <c r="B41">
+        <v>65.043000000000006</v>
+      </c>
+      <c r="C41">
+        <v>79.177999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>406.69200000000001</v>
+      </c>
+      <c r="B42">
+        <v>66.694999999999993</v>
+      </c>
+      <c r="C42">
+        <v>79.177999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>416.73099999999999</v>
+      </c>
+      <c r="B43">
+        <v>68.010999999999996</v>
+      </c>
+      <c r="C43">
+        <v>81.305999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>426.77100000000002</v>
+      </c>
+      <c r="B44">
+        <v>69.606999999999999</v>
+      </c>
+      <c r="C44">
+        <v>81.305999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>436.81099999999998</v>
+      </c>
+      <c r="B45">
+        <v>70.299000000000007</v>
+      </c>
+      <c r="C45">
+        <v>83.238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>446.84399999999999</v>
+      </c>
+      <c r="B46">
+        <v>71.213999999999999</v>
+      </c>
+      <c r="C46">
+        <v>83.238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>456.88400000000001</v>
+      </c>
+      <c r="B47">
+        <v>72.406000000000006</v>
+      </c>
+      <c r="C47">
+        <v>83.238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>466.92</v>
+      </c>
+      <c r="B48">
+        <v>73.646000000000001</v>
+      </c>
+      <c r="C48">
+        <v>84.991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>476.95499999999998</v>
+      </c>
+      <c r="B49">
+        <v>74.602999999999994</v>
+      </c>
+      <c r="C49">
+        <v>84.991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>486.99900000000002</v>
+      </c>
+      <c r="B50">
+        <v>74.992000000000004</v>
+      </c>
+      <c r="C50">
+        <v>86.578000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>497.03699999999998</v>
+      </c>
+      <c r="B51">
+        <v>75.912999999999997</v>
+      </c>
+      <c r="C51">
+        <v>86.578000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>507.07900000000001</v>
+      </c>
+      <c r="B52">
+        <v>76.768000000000001</v>
+      </c>
+      <c r="C52">
+        <v>88.015000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>517.11400000000003</v>
+      </c>
+      <c r="B53">
+        <v>78.073999999999998</v>
+      </c>
+      <c r="C53">
+        <v>88.015000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>527.15800000000002</v>
+      </c>
+      <c r="B54">
+        <v>79.332999999999998</v>
+      </c>
+      <c r="C54">
+        <v>88.015000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>537.19899999999996</v>
+      </c>
+      <c r="B55">
+        <v>79.674999999999997</v>
+      </c>
+      <c r="C55">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>547.24099999999999</v>
+      </c>
+      <c r="B56">
+        <v>81.215000000000003</v>
+      </c>
+      <c r="C56">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>557.28300000000002</v>
+      </c>
+      <c r="B57">
+        <v>82.043000000000006</v>
+      </c>
+      <c r="C57">
+        <v>90.484999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>567.32399999999996</v>
+      </c>
+      <c r="B58">
+        <v>82.480999999999995</v>
+      </c>
+      <c r="C58">
+        <v>90.484999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>577.36400000000003</v>
+      </c>
+      <c r="B59">
+        <v>83.105999999999995</v>
+      </c>
+      <c r="C59">
+        <v>90.484999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>587.404</v>
+      </c>
+      <c r="B60">
+        <v>83.93</v>
+      </c>
+      <c r="C60">
+        <v>91.540999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>597.44399999999996</v>
+      </c>
+      <c r="B61">
+        <v>85.167000000000002</v>
+      </c>
+      <c r="C61">
+        <v>91.540999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>607.49099999999999</v>
+      </c>
+      <c r="B62">
+        <v>86.04</v>
+      </c>
+      <c r="C62">
+        <v>92.492000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>617.53</v>
+      </c>
+      <c r="B63">
+        <v>86.391000000000005</v>
+      </c>
+      <c r="C63">
+        <v>92.492000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>627.56799999999998</v>
+      </c>
+      <c r="B64">
+        <v>87.058999999999997</v>
+      </c>
+      <c r="C64">
+        <v>91.540999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>637.61800000000005</v>
+      </c>
+      <c r="B65">
+        <v>87.183000000000007</v>
+      </c>
+      <c r="C65">
+        <v>91.540999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>647.65499999999997</v>
+      </c>
+      <c r="B66">
+        <v>88.233999999999995</v>
+      </c>
+      <c r="C66">
+        <v>91.540999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>657.7</v>
+      </c>
+      <c r="B67">
+        <v>89.122</v>
+      </c>
+      <c r="C67">
+        <v>90.484999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>667.74099999999999</v>
+      </c>
+      <c r="B68">
+        <v>89.54</v>
+      </c>
+      <c r="C68">
+        <v>90.484999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>677.77800000000002</v>
+      </c>
+      <c r="B69">
+        <v>90.093999999999994</v>
+      </c>
+      <c r="C69">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>687.81799999999998</v>
+      </c>
+      <c r="B70">
+        <v>90.161000000000001</v>
+      </c>
+      <c r="C70">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>697.86099999999999</v>
+      </c>
+      <c r="B71">
+        <v>90.228999999999999</v>
+      </c>
+      <c r="C71">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>707.89700000000005</v>
+      </c>
+      <c r="B72">
+        <v>91.045000000000002</v>
+      </c>
+      <c r="C72">
+        <v>88.015000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>717.93299999999999</v>
+      </c>
+      <c r="B73">
+        <v>91.287999999999997</v>
+      </c>
+      <c r="C73">
+        <v>88.015000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>727.96699999999998</v>
+      </c>
+      <c r="B74">
+        <v>91.382999999999996</v>
+      </c>
+      <c r="C74">
+        <v>86.578000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>738.00300000000004</v>
+      </c>
+      <c r="B75">
+        <v>91.599000000000004</v>
+      </c>
+      <c r="C75">
+        <v>86.578000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>748.04499999999996</v>
+      </c>
+      <c r="B76">
+        <v>91.741</v>
+      </c>
+      <c r="C76">
+        <v>84.991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>758.08500000000004</v>
+      </c>
+      <c r="B77">
+        <v>91.847999999999999</v>
+      </c>
+      <c r="C77">
+        <v>84.991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>768.12199999999996</v>
+      </c>
+      <c r="B78">
+        <v>92.033000000000001</v>
+      </c>
+      <c r="C78">
+        <v>84.991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>778.16700000000003</v>
+      </c>
+      <c r="B79">
+        <v>91.995999999999995</v>
+      </c>
+      <c r="C79">
+        <v>83.238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>788.21</v>
+      </c>
+      <c r="B80">
+        <v>92.096999999999994</v>
+      </c>
+      <c r="C80">
+        <v>83.238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>798.25199999999995</v>
+      </c>
+      <c r="B81">
+        <v>92.290999999999997</v>
+      </c>
+      <c r="C81">
+        <v>81.305999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>808.30399999999997</v>
+      </c>
+      <c r="B82">
+        <v>92.347999999999999</v>
+      </c>
+      <c r="C82">
+        <v>81.305999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>818.34799999999996</v>
+      </c>
+      <c r="B83">
+        <v>92.399000000000001</v>
+      </c>
+      <c r="C83">
+        <v>81.305999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>828.38900000000001</v>
+      </c>
+      <c r="B84">
+        <v>92.281999999999996</v>
+      </c>
+      <c r="C84">
+        <v>79.177999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>838.43299999999999</v>
+      </c>
+      <c r="B85">
+        <v>92.415000000000006</v>
+      </c>
+      <c r="C85">
+        <v>79.177999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>848.47799999999995</v>
+      </c>
+      <c r="B86">
+        <v>92.488</v>
+      </c>
+      <c r="C86">
+        <v>76.837999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>858.52099999999996</v>
+      </c>
+      <c r="B87">
+        <v>92.528000000000006</v>
+      </c>
+      <c r="C87">
+        <v>76.837999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>868.56399999999996</v>
+      </c>
+      <c r="B88">
+        <v>92.228999999999999</v>
+      </c>
+      <c r="C88">
+        <v>74.266999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>878.59799999999996</v>
+      </c>
+      <c r="B89">
+        <v>92.228999999999999</v>
+      </c>
+      <c r="C89">
+        <v>74.266999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>888.63499999999999</v>
+      </c>
+      <c r="B90">
+        <v>92.409000000000006</v>
+      </c>
+      <c r="C90">
+        <v>74.266999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>898.68499999999995</v>
+      </c>
+      <c r="B91">
+        <v>92.259</v>
+      </c>
+      <c r="C91">
+        <v>71.445999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>908.72699999999998</v>
+      </c>
+      <c r="B92">
+        <v>92.179000000000002</v>
+      </c>
+      <c r="C92">
+        <v>71.445999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>918.76900000000001</v>
+      </c>
+      <c r="B93">
+        <v>92.3</v>
+      </c>
+      <c r="C93">
+        <v>68.352000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>928.80600000000004</v>
+      </c>
+      <c r="B94">
+        <v>92.057000000000002</v>
+      </c>
+      <c r="C94">
+        <v>68.352000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>938.84699999999998</v>
+      </c>
+      <c r="B95">
+        <v>92.052000000000007</v>
+      </c>
+      <c r="C95">
+        <v>68.352000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>948.88699999999994</v>
+      </c>
+      <c r="B96">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="C96">
+        <v>64.963999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>958.928</v>
+      </c>
+      <c r="B97">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="C97">
+        <v>64.963999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>968.96500000000003</v>
+      </c>
+      <c r="B98">
+        <v>92.448999999999998</v>
+      </c>
+      <c r="C98">
+        <v>61.258000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>979.00699999999995</v>
+      </c>
+      <c r="B99">
+        <v>92.31</v>
+      </c>
+      <c r="C99">
+        <v>61.258000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>989.04899999999998</v>
+      </c>
+      <c r="B100">
+        <v>92.207999999999998</v>
+      </c>
+      <c r="C100">
+        <v>57.207000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>999.09100000000001</v>
+      </c>
+      <c r="B101">
+        <v>92.275000000000006</v>
+      </c>
+      <c r="C101">
+        <v>57.207000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1009.136</v>
+      </c>
+      <c r="B102">
+        <v>91.995000000000005</v>
+      </c>
+      <c r="C102">
+        <v>57.207000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1019.181</v>
+      </c>
+      <c r="B103">
+        <v>91.721000000000004</v>
+      </c>
+      <c r="C103">
+        <v>52.783999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1029.2270000000001</v>
+      </c>
+      <c r="B104">
+        <v>92.064999999999998</v>
+      </c>
+      <c r="C104">
+        <v>52.783999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1039.268</v>
+      </c>
+      <c r="B105">
+        <v>91.652000000000001</v>
+      </c>
+      <c r="C105">
+        <v>47.959000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1049.3119999999999</v>
+      </c>
+      <c r="B106">
+        <v>91.760999999999996</v>
+      </c>
+      <c r="C106">
+        <v>47.959000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1059.356</v>
+      </c>
+      <c r="B107">
+        <v>91.328000000000003</v>
+      </c>
+      <c r="C107">
+        <v>42.701000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1069.403</v>
+      </c>
+      <c r="B108">
+        <v>90.988</v>
+      </c>
+      <c r="C108">
+        <v>42.701000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1079.4490000000001</v>
+      </c>
+      <c r="B109">
+        <v>90.628</v>
+      </c>
+      <c r="C109">
+        <v>42.701000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1089.4960000000001</v>
+      </c>
+      <c r="B110">
+        <v>90.507000000000005</v>
+      </c>
+      <c r="C110">
+        <v>36.975000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1099.5429999999999</v>
+      </c>
+      <c r="B111">
+        <v>90.31</v>
+      </c>
+      <c r="C111">
+        <v>36.975000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1109.588</v>
+      </c>
+      <c r="B112">
+        <v>90.266999999999996</v>
+      </c>
+      <c r="C112">
+        <v>30.747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1119.634</v>
+      </c>
+      <c r="B113">
+        <v>90.132000000000005</v>
+      </c>
+      <c r="C113">
+        <v>30.747</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1129.6790000000001</v>
+      </c>
+      <c r="B114">
+        <v>89.801000000000002</v>
+      </c>
+      <c r="C114">
+        <v>30.747</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1139.7239999999999</v>
+      </c>
+      <c r="B115">
+        <v>89.766000000000005</v>
+      </c>
+      <c r="C115">
+        <v>23.977</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1149.7629999999999</v>
+      </c>
+      <c r="B116">
+        <v>89.682000000000002</v>
+      </c>
+      <c r="C116">
+        <v>23.977</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1159.8219999999999</v>
+      </c>
+      <c r="B117">
+        <v>89.019000000000005</v>
+      </c>
+      <c r="C117">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1169.8679999999999</v>
+      </c>
+      <c r="B118">
+        <v>88.668000000000006</v>
+      </c>
+      <c r="C118">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1179.9079999999999</v>
+      </c>
+      <c r="B119">
+        <v>88.462000000000003</v>
+      </c>
+      <c r="C119">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1189.9549999999999</v>
+      </c>
+      <c r="B120">
+        <v>87.727000000000004</v>
+      </c>
+      <c r="C120">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1200</v>
+      </c>
+      <c r="B121">
+        <v>86.942999999999998</v>
+      </c>
+      <c r="C121">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/plots/reordering_multipath_var.xlsx
+++ b/plots/reordering_multipath_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FFB8F-D73F-134B-A330-A99CDCF01568}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA6F1A-27F2-274A-B0EF-E180C8C27D5B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A6012ECB-61CB-FF42-BF73-A9DB0762EF75}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$121</definedName>
     <definedName name="reordering_multipath_var_out" localSheetId="0">Sheet1!$A$2:$C$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,7 +50,7 @@
     <t>Reordering</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -980,7 +975,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1767,6 +1762,7 @@
         <c:axId val="704546607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1777,7 +1773,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1790,7 +1786,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -1809,7 +1805,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1894,7 +1890,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1907,7 +1903,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -1926,7 +1922,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2962,7 +2958,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
